--- a/app/files/templates/load_report_temp.xlsx
+++ b/app/files/templates/load_report_temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenysemenov/PycharmProjects/apeks-vuz-extension/app/files/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prepod\PycharmProjects\apeks-vuz-extension\app\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF22EA9-8EF2-8D46-9E67-281725862CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E429E98C-821E-4C09-B83C-5DF711F94C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Уч. раб" sheetId="3" r:id="rId1"/>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -175,6 +175,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,37 +218,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -560,278 +571,261 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BT7"/>
+  <dimension ref="A1:BT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3" style="1" customWidth="1"/>
-    <col min="4" max="6" width="2.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="2.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4" style="1" customWidth="1"/>
-    <col min="15" max="18" width="2.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="4.1640625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="2.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.33203125" style="1" customWidth="1"/>
-    <col min="25" max="28" width="2.83203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="5.1640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="5" style="1" customWidth="1"/>
-    <col min="31" max="32" width="3.5" style="1" customWidth="1"/>
-    <col min="33" max="33" width="4.1640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="3.5" style="1" customWidth="1"/>
-    <col min="35" max="35" width="4.1640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="4.6640625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="4" style="1" customWidth="1"/>
-    <col min="38" max="40" width="2.83203125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="3.5" style="1" customWidth="1"/>
-    <col min="42" max="43" width="2.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="34" width="4.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="4.5703125" style="1" customWidth="1"/>
+    <col min="41" max="43" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="3" style="1" customWidth="1"/>
-    <col min="45" max="45" width="3.1640625" style="1" customWidth="1"/>
-    <col min="46" max="48" width="2.83203125" style="1" customWidth="1"/>
-    <col min="49" max="53" width="2.6640625" style="1" customWidth="1"/>
-    <col min="54" max="58" width="2.5" style="1" customWidth="1"/>
-    <col min="59" max="59" width="3" style="1" customWidth="1"/>
-    <col min="60" max="64" width="2.83203125" style="1" customWidth="1"/>
-    <col min="65" max="66" width="3" style="1" customWidth="1"/>
-    <col min="67" max="70" width="2.6640625" style="1" customWidth="1"/>
-    <col min="71" max="71" width="3" style="1" customWidth="1"/>
-    <col min="72" max="72" width="6.1640625" style="1" customWidth="1"/>
-    <col min="73" max="16384" width="17.33203125" style="1"/>
+    <col min="45" max="64" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.42578125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="70" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="3.5703125" style="1" customWidth="1"/>
+    <col min="72" max="72" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="17.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
-      <c r="BS1" s="7"/>
-      <c r="BT1" s="7"/>
+    <row r="1" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="10"/>
     </row>
-    <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
-      <c r="BQ2" s="7"/>
-      <c r="BR2" s="7"/>
-      <c r="BS2" s="7"/>
-      <c r="BT2" s="7"/>
+    <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10"/>
     </row>
-    <row r="3" spans="1:72" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7"/>
-      <c r="BH3" s="7"/>
-      <c r="BI3" s="7"/>
-      <c r="BJ3" s="7"/>
-      <c r="BK3" s="7"/>
-      <c r="BL3" s="7"/>
-      <c r="BM3" s="7"/>
-      <c r="BN3" s="7"/>
-      <c r="BO3" s="7"/>
-      <c r="BP3" s="7"/>
-      <c r="BQ3" s="7"/>
-      <c r="BR3" s="7"/>
-      <c r="BS3" s="7"/>
-      <c r="BT3" s="7"/>
+    <row r="3" spans="1:72" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
     </row>
-    <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -905,11 +899,11 @@
       <c r="BS4" s="3"/>
       <c r="BT4" s="3"/>
     </row>
-    <row r="5" spans="1:72" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:72" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5"/>
@@ -917,7 +911,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="5"/>
@@ -925,7 +919,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="O5" s="5"/>
@@ -933,20 +927,20 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="8" t="s">
+      <c r="AC5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AD5" s="5"/>
@@ -954,7 +948,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
-      <c r="AI5" s="8" t="s">
+      <c r="AI5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AJ5" s="5"/>
@@ -962,35 +956,35 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
-      <c r="AO5" s="8" t="s">
+      <c r="AO5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AP5" s="5"/>
       <c r="AQ5" s="5"/>
       <c r="AR5" s="5"/>
-      <c r="AS5" s="8" t="s">
+      <c r="AS5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="AT5" s="5"/>
       <c r="AU5" s="5"/>
       <c r="AV5" s="5"/>
-      <c r="AW5" s="8" t="s">
+      <c r="AW5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AX5" s="5"/>
       <c r="AY5" s="5"/>
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
-      <c r="BB5" s="8" t="s">
+      <c r="BB5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="BC5" s="5"/>
       <c r="BD5" s="5"/>
-      <c r="BE5" s="8" t="s">
+      <c r="BE5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="BF5" s="5"/>
-      <c r="BG5" s="8" t="s">
+      <c r="BG5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="BH5" s="5"/>
@@ -998,190 +992,190 @@
       <c r="BJ5" s="5"/>
       <c r="BK5" s="5"/>
       <c r="BL5" s="5"/>
-      <c r="BM5" s="8" t="s">
+      <c r="BM5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="BN5" s="8" t="s">
+      <c r="BN5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="BO5" s="8" t="s">
+      <c r="BO5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="BP5" s="5"/>
       <c r="BQ5" s="5"/>
       <c r="BR5" s="5"/>
-      <c r="BS5" s="8" t="s">
+      <c r="BS5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="BT5" s="13" t="s">
+      <c r="BT5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:72" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:72" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="Z6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AA6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AB6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AC6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AE6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AF6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AH6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AI6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AK6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AL6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="AM6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN6" s="11" t="s">
+      <c r="AN6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AO6" s="11" t="s">
+      <c r="AO6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AP6" s="4" t="s">
+      <c r="AP6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AQ6" s="4" t="s">
+      <c r="AQ6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="AR6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AS6" s="11" t="s">
+      <c r="AS6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AT6" s="4" t="s">
+      <c r="AT6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AU6" s="4" t="s">
+      <c r="AU6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AV6" s="11" t="s">
+      <c r="AV6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AW6" s="11" t="s">
+      <c r="AW6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AX6" s="4" t="s">
+      <c r="AX6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AY6" s="4" t="s">
+      <c r="AY6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AZ6" s="11" t="s">
+      <c r="AZ6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BA6" s="11" t="s">
+      <c r="BA6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BB6" s="11" t="s">
+      <c r="BB6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="BC6" s="4" t="s">
+      <c r="BC6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BD6" s="4" t="s">
+      <c r="BD6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="BE6" s="12" t="s">
@@ -1190,42 +1184,42 @@
       <c r="BF6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="BG6" s="11" t="s">
+      <c r="BG6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="BH6" s="4" t="s">
+      <c r="BH6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BI6" s="4" t="s">
+      <c r="BI6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BJ6" s="11" t="s">
+      <c r="BJ6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BK6" s="11" t="s">
+      <c r="BK6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="BL6" s="11" t="s">
+      <c r="BL6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="BM6" s="5"/>
-      <c r="BN6" s="9"/>
-      <c r="BO6" s="11" t="s">
+      <c r="BN6" s="8"/>
+      <c r="BO6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="BP6" s="4" t="s">
+      <c r="BP6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BQ6" s="4" t="s">
+      <c r="BQ6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BR6" s="11" t="s">
+      <c r="BR6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BS6" s="9"/>
+      <c r="BS6" s="8"/>
       <c r="BT6" s="5"/>
     </row>
-    <row r="7" spans="1:72" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:72" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1299,38 +1293,84 @@
       <c r="BS7" s="5"/>
       <c r="BT7" s="5"/>
     </row>
+    <row r="8" spans="1:72" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BT8" s="16"/>
+    </row>
+    <row r="9" spans="1:72" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:72" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="BO5:BR5"/>
-    <mergeCell ref="BS5:BS7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BC6:BC7"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="A2:BT2"/>
+    <mergeCell ref="A1:BT1"/>
+    <mergeCell ref="BG5:BL5"/>
+    <mergeCell ref="BM5:BM7"/>
+    <mergeCell ref="BN5:BN7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="AC5:AH5"/>
+    <mergeCell ref="AI5:AN5"/>
+    <mergeCell ref="AW5:BA5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BH6:BH7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AT6:AT7"/>
+    <mergeCell ref="AU6:AU7"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="BF6:BF7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="AX6:AX7"/>
+    <mergeCell ref="AY6:AY7"/>
+    <mergeCell ref="AZ6:AZ7"/>
+    <mergeCell ref="BA6:BA7"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AP6:AP7"/>
     <mergeCell ref="BI6:BI7"/>
     <mergeCell ref="BJ6:BJ7"/>
     <mergeCell ref="BK6:BK7"/>
@@ -1347,49 +1387,36 @@
     <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BH6:BH7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AS6:AS7"/>
-    <mergeCell ref="AT6:AT7"/>
-    <mergeCell ref="AU6:AU7"/>
-    <mergeCell ref="AV6:AV7"/>
-    <mergeCell ref="BE6:BE7"/>
-    <mergeCell ref="BF6:BF7"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="AX6:AX7"/>
-    <mergeCell ref="AY6:AY7"/>
-    <mergeCell ref="AZ6:AZ7"/>
-    <mergeCell ref="BA6:BA7"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="AI5:AN5"/>
-    <mergeCell ref="AW5:BA5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AS5:AV5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="BC6:BC7"/>
-    <mergeCell ref="BD6:BD7"/>
-    <mergeCell ref="A2:BT2"/>
-    <mergeCell ref="A1:BT1"/>
-    <mergeCell ref="BG5:BL5"/>
-    <mergeCell ref="BM5:BM7"/>
-    <mergeCell ref="BN5:BN7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="AC5:AH5"/>
+    <mergeCell ref="BO5:BR5"/>
+    <mergeCell ref="BS5:BS7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="1.1811023622047245" bottom="0.39370078740157483" header="0" footer="0"/>

--- a/app/files/templates/load_report_temp.xlsx
+++ b/app/files/templates/load_report_temp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prepod\PycharmProjects\apeks-vuz-extension\app\files\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm\app\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E429E98C-821E-4C09-B83C-5DF711F94C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B7B486-611C-4048-BE6B-BE0BF9E833E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="20520" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Уч. раб" sheetId="3" r:id="rId1"/>
@@ -225,34 +225,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -589,9 +589,11 @@
     <col min="18" max="19" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="28" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="34" width="4.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="5.42578125" style="1" customWidth="1"/>
+    <col min="31" max="34" width="4.5703125" style="1" customWidth="1"/>
     <col min="35" max="35" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="40" width="4.5703125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="5.85546875" style="1" customWidth="1"/>
+    <col min="37" max="40" width="4.5703125" style="1" customWidth="1"/>
     <col min="41" max="43" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="3" style="1" customWidth="1"/>
     <col min="45" max="64" width="3" style="1" bestFit="1" customWidth="1"/>
@@ -604,226 +606,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="10"/>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
-      <c r="BL2" s="10"/>
-      <c r="BM2" s="10"/>
-      <c r="BN2" s="10"/>
-      <c r="BO2" s="10"/>
-      <c r="BP2" s="10"/>
-      <c r="BQ2" s="10"/>
-      <c r="BR2" s="10"/>
-      <c r="BS2" s="10"/>
-      <c r="BT2" s="10"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
     </row>
     <row r="3" spans="1:72" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="10"/>
-      <c r="BF3" s="10"/>
-      <c r="BG3" s="10"/>
-      <c r="BH3" s="10"/>
-      <c r="BI3" s="10"/>
-      <c r="BJ3" s="10"/>
-      <c r="BK3" s="10"/>
-      <c r="BL3" s="10"/>
-      <c r="BM3" s="10"/>
-      <c r="BN3" s="10"/>
-      <c r="BO3" s="10"/>
-      <c r="BP3" s="10"/>
-      <c r="BQ3" s="10"/>
-      <c r="BR3" s="10"/>
-      <c r="BS3" s="10"/>
-      <c r="BT3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11"/>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -900,434 +902,507 @@
       <c r="BT4" s="3"/>
     </row>
     <row r="5" spans="1:72" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="7" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="7" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="7" t="s">
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="7" t="s">
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="7" t="s">
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="7" t="s">
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="7" t="s">
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="7" t="s">
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="7" t="s">
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="7" t="s">
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="7" t="s">
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="7" t="s">
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="BN5" s="7" t="s">
+      <c r="BN5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="BO5" s="7" t="s">
+      <c r="BO5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="5"/>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="7" t="s">
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BT5" s="11" t="s">
+      <c r="BT5" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:72" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AB6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AC6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AD6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AE6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AF6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AG6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AH6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AI6" s="4" t="s">
+      <c r="AI6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AJ6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AK6" s="6" t="s">
+      <c r="AK6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AL6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AM6" s="4" t="s">
+      <c r="AM6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AN6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AO6" s="4" t="s">
+      <c r="AO6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AP6" s="6" t="s">
+      <c r="AP6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AQ6" s="6" t="s">
+      <c r="AQ6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AR6" s="4" t="s">
+      <c r="AR6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AS6" s="4" t="s">
+      <c r="AS6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AT6" s="6" t="s">
+      <c r="AT6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AU6" s="6" t="s">
+      <c r="AU6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AV6" s="4" t="s">
+      <c r="AV6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AW6" s="4" t="s">
+      <c r="AW6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AX6" s="6" t="s">
+      <c r="AX6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AY6" s="6" t="s">
+      <c r="AY6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AZ6" s="4" t="s">
+      <c r="AZ6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="BA6" s="4" t="s">
+      <c r="BA6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="BB6" s="4" t="s">
+      <c r="BB6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BC6" s="6" t="s">
+      <c r="BC6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BD6" s="6" t="s">
+      <c r="BD6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="12" t="s">
+      <c r="BE6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="BF6" s="12" t="s">
+      <c r="BF6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="BG6" s="4" t="s">
+      <c r="BG6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BH6" s="6" t="s">
+      <c r="BH6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BI6" s="6" t="s">
+      <c r="BI6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="BJ6" s="4" t="s">
+      <c r="BJ6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="BK6" s="4" t="s">
+      <c r="BK6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BL6" s="4" t="s">
+      <c r="BL6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="4" t="s">
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="13"/>
+      <c r="BO6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BP6" s="6" t="s">
+      <c r="BP6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BQ6" s="6" t="s">
+      <c r="BQ6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="BR6" s="4" t="s">
+      <c r="BR6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="BS6" s="8"/>
-      <c r="BT6" s="5"/>
+      <c r="BS6" s="13"/>
+      <c r="BT6" s="9"/>
     </row>
     <row r="7" spans="1:72" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="5"/>
-      <c r="BF7" s="5"/>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="5"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
-      <c r="BN7" s="5"/>
-      <c r="BO7" s="5"/>
-      <c r="BP7" s="5"/>
-      <c r="BQ7" s="5"/>
-      <c r="BR7" s="5"/>
-      <c r="BS7" s="5"/>
-      <c r="BT7" s="5"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="9"/>
+      <c r="BL7" s="9"/>
+      <c r="BM7" s="9"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="9"/>
+      <c r="BR7" s="9"/>
+      <c r="BS7" s="9"/>
+      <c r="BT7" s="9"/>
     </row>
-    <row r="8" spans="1:72" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="BG8" s="16"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="16"/>
-      <c r="BJ8" s="16"/>
-      <c r="BK8" s="16"/>
-      <c r="BL8" s="16"/>
-      <c r="BT8" s="16"/>
+    <row r="8" spans="1:72" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BT8" s="6"/>
     </row>
-    <row r="9" spans="1:72" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:72" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:72" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:72" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="BO5:BR5"/>
+    <mergeCell ref="BS5:BS7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BI6:BI7"/>
+    <mergeCell ref="BJ6:BJ7"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="A3:BT3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="BT5:BT7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BH6:BH7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AT6:AT7"/>
+    <mergeCell ref="AU6:AU7"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="BF6:BF7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="AX6:AX7"/>
+    <mergeCell ref="AY6:AY7"/>
+    <mergeCell ref="AZ6:AZ7"/>
+    <mergeCell ref="BA6:BA7"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="AI5:AN5"/>
+    <mergeCell ref="AW5:BA5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="AO5:AR5"/>
     <mergeCell ref="BC6:BC7"/>
     <mergeCell ref="BD6:BD7"/>
     <mergeCell ref="A2:BT2"/>
@@ -1344,79 +1419,6 @@
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="AC5:AH5"/>
-    <mergeCell ref="AI5:AN5"/>
-    <mergeCell ref="AW5:BA5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AS5:AV5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BH6:BH7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AS6:AS7"/>
-    <mergeCell ref="AT6:AT7"/>
-    <mergeCell ref="AU6:AU7"/>
-    <mergeCell ref="AV6:AV7"/>
-    <mergeCell ref="BE6:BE7"/>
-    <mergeCell ref="BF6:BF7"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="AX6:AX7"/>
-    <mergeCell ref="AY6:AY7"/>
-    <mergeCell ref="AZ6:AZ7"/>
-    <mergeCell ref="BA6:BA7"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="BI6:BI7"/>
-    <mergeCell ref="BJ6:BJ7"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="A3:BT3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="BT5:BT7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="BO5:BR5"/>
-    <mergeCell ref="BS5:BS7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="1.1811023622047245" bottom="0.39370078740157483" header="0" footer="0"/>

--- a/app/files/templates/load_report_temp.xlsx
+++ b/app/files/templates/load_report_temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm\app\files\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prepod\PycharmProjects\apeks-vuz-extension\app\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B7B486-611C-4048-BE6B-BE0BF9E833E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5739326-51F6-445C-BEA7-2D65C7C4EFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="690" windowWidth="20520" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Уч. раб" sheetId="3" r:id="rId1"/>
@@ -229,29 +229,29 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,7 +574,7 @@
   <dimension ref="A1:BT10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -601,231 +601,231 @@
     <col min="66" max="66" width="3.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="67" max="70" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="3.5703125" style="1" customWidth="1"/>
-    <col min="72" max="72" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.5703125" style="1" customWidth="1"/>
     <col min="73" max="16384" width="17.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="14"/>
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="14"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="14"/>
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="14"/>
+      <c r="BI1" s="14"/>
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="14"/>
+      <c r="BL1" s="14"/>
+      <c r="BM1" s="14"/>
+      <c r="BN1" s="14"/>
+      <c r="BO1" s="14"/>
+      <c r="BP1" s="14"/>
+      <c r="BQ1" s="14"/>
+      <c r="BR1" s="14"/>
+      <c r="BS1" s="14"/>
+      <c r="BT1" s="14"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="14"/>
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="14"/>
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="14"/>
+      <c r="BP2" s="14"/>
+      <c r="BQ2" s="14"/>
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="14"/>
+      <c r="BT2" s="14"/>
     </row>
     <row r="3" spans="1:72" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="11"/>
-      <c r="BR3" s="11"/>
-      <c r="BS3" s="11"/>
-      <c r="BT3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -902,10 +902,10 @@
       <c r="BT4" s="3"/>
     </row>
     <row r="5" spans="1:72" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="9"/>
@@ -913,7 +913,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="9"/>
@@ -921,7 +921,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="O5" s="9"/>
@@ -929,20 +929,20 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="12" t="s">
+      <c r="AC5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="AD5" s="9"/>
@@ -950,7 +950,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
-      <c r="AI5" s="12" t="s">
+      <c r="AI5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AJ5" s="9"/>
@@ -958,35 +958,35 @@
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
-      <c r="AO5" s="12" t="s">
+      <c r="AO5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
-      <c r="AS5" s="12" t="s">
+      <c r="AS5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="AT5" s="9"/>
       <c r="AU5" s="9"/>
       <c r="AV5" s="9"/>
-      <c r="AW5" s="12" t="s">
+      <c r="AW5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9"/>
-      <c r="BB5" s="12" t="s">
+      <c r="BB5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="BC5" s="9"/>
       <c r="BD5" s="9"/>
-      <c r="BE5" s="12" t="s">
+      <c r="BE5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="BF5" s="9"/>
-      <c r="BG5" s="12" t="s">
+      <c r="BG5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="BH5" s="9"/>
@@ -994,190 +994,190 @@
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
-      <c r="BM5" s="12" t="s">
+      <c r="BM5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="BN5" s="12" t="s">
+      <c r="BN5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="BO5" s="12" t="s">
+      <c r="BO5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="BP5" s="9"/>
       <c r="BQ5" s="9"/>
       <c r="BR5" s="9"/>
-      <c r="BS5" s="12" t="s">
+      <c r="BS5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="BT5" s="17" t="s">
+      <c r="BT5" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:72" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="X6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="Y6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AB6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AC6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AD6" s="8" t="s">
+      <c r="AD6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AE6" s="8" t="s">
+      <c r="AE6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AF6" s="15" t="s">
+      <c r="AF6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AG6" s="15" t="s">
+      <c r="AG6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AH6" s="15" t="s">
+      <c r="AH6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AI6" s="15" t="s">
+      <c r="AI6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AJ6" s="8" t="s">
+      <c r="AJ6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AK6" s="8" t="s">
+      <c r="AK6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="15" t="s">
+      <c r="AL6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AM6" s="15" t="s">
+      <c r="AM6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AN6" s="15" t="s">
+      <c r="AN6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AO6" s="15" t="s">
+      <c r="AO6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AP6" s="8" t="s">
+      <c r="AP6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AQ6" s="8" t="s">
+      <c r="AQ6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AR6" s="15" t="s">
+      <c r="AR6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AS6" s="15" t="s">
+      <c r="AS6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AT6" s="8" t="s">
+      <c r="AT6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AU6" s="8" t="s">
+      <c r="AU6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AV6" s="15" t="s">
+      <c r="AV6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AW6" s="15" t="s">
+      <c r="AW6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AX6" s="8" t="s">
+      <c r="AX6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AY6" s="8" t="s">
+      <c r="AY6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AZ6" s="15" t="s">
+      <c r="AZ6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="BA6" s="15" t="s">
+      <c r="BA6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="BB6" s="15" t="s">
+      <c r="BB6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="BC6" s="8" t="s">
+      <c r="BC6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="BD6" s="8" t="s">
+      <c r="BD6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="BE6" s="16" t="s">
@@ -1186,39 +1186,39 @@
       <c r="BF6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="BG6" s="15" t="s">
+      <c r="BG6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="BH6" s="8" t="s">
+      <c r="BH6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="BI6" s="8" t="s">
+      <c r="BI6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="BJ6" s="15" t="s">
+      <c r="BJ6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="BK6" s="15" t="s">
+      <c r="BK6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="BL6" s="15" t="s">
+      <c r="BL6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="BM6" s="9"/>
-      <c r="BN6" s="13"/>
-      <c r="BO6" s="15" t="s">
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="BP6" s="8" t="s">
+      <c r="BP6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="BQ6" s="8" t="s">
+      <c r="BQ6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="BR6" s="15" t="s">
+      <c r="BR6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="BS6" s="13"/>
+      <c r="BS6" s="12"/>
       <c r="BT6" s="9"/>
     </row>
     <row r="7" spans="1:72" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1330,36 +1330,49 @@
     <row r="10" spans="1:72" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="BO5:BR5"/>
-    <mergeCell ref="BS5:BS7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BC6:BC7"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="A2:BT2"/>
+    <mergeCell ref="A1:BT1"/>
+    <mergeCell ref="BG5:BL5"/>
+    <mergeCell ref="BM5:BM7"/>
+    <mergeCell ref="BN5:BN7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="AC5:AH5"/>
+    <mergeCell ref="AI5:AN5"/>
+    <mergeCell ref="AW5:BA5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BH6:BH7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AT6:AT7"/>
+    <mergeCell ref="AU6:AU7"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="BF6:BF7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="AX6:AX7"/>
+    <mergeCell ref="AY6:AY7"/>
+    <mergeCell ref="AZ6:AZ7"/>
+    <mergeCell ref="BA6:BA7"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AP6:AP7"/>
     <mergeCell ref="BI6:BI7"/>
     <mergeCell ref="BJ6:BJ7"/>
     <mergeCell ref="BK6:BK7"/>
@@ -1376,49 +1389,36 @@
     <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BH6:BH7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AS6:AS7"/>
-    <mergeCell ref="AT6:AT7"/>
-    <mergeCell ref="AU6:AU7"/>
-    <mergeCell ref="AV6:AV7"/>
-    <mergeCell ref="BE6:BE7"/>
-    <mergeCell ref="BF6:BF7"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="AX6:AX7"/>
-    <mergeCell ref="AY6:AY7"/>
-    <mergeCell ref="AZ6:AZ7"/>
-    <mergeCell ref="BA6:BA7"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="AI5:AN5"/>
-    <mergeCell ref="AW5:BA5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AS5:AV5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="BC6:BC7"/>
-    <mergeCell ref="BD6:BD7"/>
-    <mergeCell ref="A2:BT2"/>
-    <mergeCell ref="A1:BT1"/>
-    <mergeCell ref="BG5:BL5"/>
-    <mergeCell ref="BM5:BM7"/>
-    <mergeCell ref="BN5:BN7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="AC5:AH5"/>
+    <mergeCell ref="BO5:BR5"/>
+    <mergeCell ref="BS5:BS7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="1.1811023622047245" bottom="0.39370078740157483" header="0" footer="0"/>
